--- a/resource/cn/csv/Monster.xlsx
+++ b/resource/cn/csv/Monster.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\egret\work\egret_synthesis_game\resource\cn\csv\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B4E0AA-0A14-4775-85BF-D9E45243B8C5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="97">
   <si>
     <t>id</t>
   </si>
@@ -175,9 +181,6 @@
     <t>20</t>
   </si>
   <si>
-    <t>1005</t>
-  </si>
-  <si>
     <t>1001</t>
   </si>
   <si>
@@ -199,18 +202,12 @@
     <t>30</t>
   </si>
   <si>
-    <t>1006</t>
-  </si>
-  <si>
     <t>-65,-107,123,107</t>
   </si>
   <si>
     <t>40</t>
   </si>
   <si>
-    <t>1007</t>
-  </si>
-  <si>
     <t>-43,-104,85,104</t>
   </si>
   <si>
@@ -220,24 +217,15 @@
     <t>50</t>
   </si>
   <si>
-    <t>1008</t>
-  </si>
-  <si>
     <t>60</t>
   </si>
   <si>
-    <t>1009</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
     <t>70</t>
   </si>
   <si>
-    <t>1010</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
@@ -259,9 +247,6 @@
     <t>80</t>
   </si>
   <si>
-    <t>1011</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
@@ -274,9 +259,6 @@
     <t>90</t>
   </si>
   <si>
-    <t>1012</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
@@ -298,32 +280,50 @@
     <t>100</t>
   </si>
   <si>
-    <t>1013</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
-    <t>1014</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
-    <t>1015</t>
+    <t>bombAni</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆炸动画</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui_bao01</t>
+  </si>
+  <si>
+    <t>ui_bao01</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10002</t>
+  </si>
+  <si>
+    <t>10002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10003</t>
+  </si>
+  <si>
+    <t>10003</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -335,167 +335,31 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
       <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -508,188 +372,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -697,249 +381,10 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -950,8 +395,8 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -960,58 +405,39 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1024,6 +450,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1281,28 +710,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:U14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P17" sqref="P17"/>
+      <selection pane="bottomRight" activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="12.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.1666666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.125" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="3"/>
     <col min="6" max="7" width="13" style="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="1" customWidth="1"/>
@@ -1314,14 +742,15 @@
     <col min="14" max="14" width="10.875" style="1" customWidth="1"/>
     <col min="15" max="15" width="12.5" style="1" customWidth="1"/>
     <col min="16" max="17" width="8.25" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.625" style="5" customWidth="1"/>
-    <col min="19" max="19" width="11.75" style="6" customWidth="1"/>
-    <col min="20" max="20" width="8.83333333333333" style="1"/>
-    <col min="21" max="21" width="12" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.83333333333333" style="1"/>
+    <col min="18" max="18" width="13" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12.625" style="5" customWidth="1"/>
+    <col min="20" max="20" width="11.75" style="6" customWidth="1"/>
+    <col min="21" max="21" width="8.875" style="1"/>
+    <col min="22" max="22" width="12" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1373,20 +802,23 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:21">
+    <row r="2" spans="1:22">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -1438,20 +870,23 @@
       <c r="Q2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="S2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="V2" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:21">
+    <row r="3" spans="1:22">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1503,20 +938,23 @@
       <c r="Q3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="R3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="S3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="T3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:21">
+    <row r="4" spans="1:22">
       <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
@@ -1568,20 +1006,23 @@
       <c r="Q4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="R4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="8">
-        <v>1005</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="U4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:21">
+    <row r="5" spans="1:22">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -1589,16 +1030,16 @@
         <v>43</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G5" s="1">
         <v>10</v>
@@ -1607,13 +1048,13 @@
         <v>48</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="K5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>42</v>
@@ -1631,39 +1072,42 @@
         <v>1</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="S5" s="8">
-        <v>1005</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="U5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="V5" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:21">
+    <row r="6" spans="1:22">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G6" s="1">
         <v>10</v>
@@ -1672,13 +1116,13 @@
         <v>48</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>42</v>
@@ -1696,22 +1140,25 @@
         <v>1</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="S6" s="8">
-        <v>1005</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="U6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="V6" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:21">
+    <row r="7" spans="1:22">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -1719,16 +1166,16 @@
         <v>43</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G7" s="1">
         <v>10</v>
@@ -1737,13 +1184,13 @@
         <v>48</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>42</v>
@@ -1761,39 +1208,42 @@
         <v>1</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="S7" s="8">
-        <v>1005</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="U7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="V7" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:21">
+    <row r="8" spans="1:22">
       <c r="A8" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G8" s="1">
         <v>10</v>
@@ -1802,13 +1252,13 @@
         <v>48</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>42</v>
@@ -1826,39 +1276,42 @@
         <v>1</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="S8" s="8">
-        <v>1005</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="U8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="V8" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:21">
+    <row r="9" spans="1:22">
       <c r="A9" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G9" s="1">
         <v>10</v>
@@ -1867,13 +1320,13 @@
         <v>48</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>42</v>
@@ -1891,39 +1344,42 @@
         <v>1</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="R9" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="S9" s="8">
-        <v>1005</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="T9" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="U9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="V9" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:21">
+    <row r="10" spans="1:22">
       <c r="A10" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G10" s="1">
         <v>10</v>
@@ -1932,19 +1388,19 @@
         <v>48</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>44</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>51</v>
@@ -1956,39 +1412,42 @@
         <v>1</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="S10" s="8">
-        <v>1005</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>54</v>
+        <v>74</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="T10" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="U10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="V10" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:21">
+    <row r="11" spans="1:22">
       <c r="A11" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G11" s="1">
         <v>10</v>
@@ -1997,10 +1456,10 @@
         <v>48</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>45</v>
@@ -2009,7 +1468,7 @@
         <v>42</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>51</v>
@@ -2021,39 +1480,42 @@
         <v>1</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="R11" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="S11" s="8">
-        <v>1005</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>54</v>
+        <v>78</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="T11" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="U11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="V11" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:22">
       <c r="A12" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G12" s="1">
         <v>10</v>
@@ -2062,10 +1524,10 @@
         <v>48</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>45</v>
@@ -2074,7 +1536,7 @@
         <v>42</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>51</v>
@@ -2086,39 +1548,42 @@
         <v>1</v>
       </c>
       <c r="Q12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="T12" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="R12" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="S12" s="8">
-        <v>1005</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="U12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="V12" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:21">
+    <row r="13" spans="1:22">
       <c r="A13" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G13" s="1">
         <v>10</v>
@@ -2127,19 +1592,19 @@
         <v>48</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>44</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>51</v>
@@ -2151,39 +1616,42 @@
         <v>1</v>
       </c>
       <c r="Q13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="T13" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="R13" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="S13" s="8">
-        <v>1005</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="U13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="V13" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:21">
+    <row r="14" spans="1:22">
       <c r="A14" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G14" s="1">
         <v>10</v>
@@ -2192,10 +1660,10 @@
         <v>48</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>45</v>
@@ -2204,7 +1672,7 @@
         <v>42</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>51</v>
@@ -2216,40 +1684,31 @@
         <v>1</v>
       </c>
       <c r="Q14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="T14" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="R14" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="S14" s="8">
-        <v>1005</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="U14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="V14" s="1" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="S11">
-    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S12">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S13">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S14">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S4:S10">
+  <phoneticPr fontId="5" type="noConversion"/>
+  <conditionalFormatting sqref="T4:T14">
     <cfRule type="duplicateValues" dxfId="0" priority="20"/>
   </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="J5:M9 J4:M4 J10:K10" numberStoredAsText="1"/>
   </ignoredErrors>
